--- a/biology/Botanique/Primordium/Primordium.xlsx
+++ b/biology/Botanique/Primordium/Primordium.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un primordium (au pluriel primordia) est une ébauche d'organe d'une plante ou d'un champignon (mycota).
 Le développement d'un primordium aboutit à la formation de l'organe.
@@ -512,7 +524,9 @@
           <t>Botanique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">En botanique, les primordia sont des renflements à la surface du méristème. Ces renflements se produisent dans des zones particulières du méristème, marquées par une forte activité mitotique accompagnée de phénomènes de différenciation cellulaire. 
 </t>
@@ -543,7 +557,9 @@
           <t>Mycologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">En mycologie, le primordium est un sporophore jeune, qui comporte encore le voile général qui protège le sporophore et le voile partiel qui protège les organes de reproduction, les tubes ou les lames. 
 </t>
